--- a/课程设计/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
+++ b/课程设计/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerOrganization\课程设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B80289-86AC-4F2F-87EA-94FB8ED0166B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B539A-53BC-4D98-9434-BD79456DF41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="7824" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -874,11 +874,11 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>JUI</t>
+    <t>BLTZ</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>BLTZ</t>
+    <t>LB</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -1447,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,9 +1660,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1675,9 +1672,6 @@
     <xf numFmtId="0" fontId="35" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1688,6 +1682,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2173,8 +2170,8 @@
   </sheetPr>
   <dimension ref="A1:AO65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2185,7 +2182,7 @@
     <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
     <col min="5" max="16" width="4.6640625" style="37" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="37" customWidth="1"/>
-    <col min="18" max="21" width="3.6640625" style="37" hidden="1" customWidth="1"/>
+    <col min="18" max="21" width="3.6640625" style="37" customWidth="1"/>
     <col min="22" max="22" width="10.21875" style="37" customWidth="1"/>
     <col min="23" max="23" width="9.21875" style="37" customWidth="1"/>
     <col min="24" max="24" width="10.6640625" style="37" customWidth="1"/>
@@ -2298,13 +2295,13 @@
         <v>32</v>
       </c>
       <c r="AH1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI1" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" s="36" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>125</v>
-      </c>
-      <c r="AJ1" s="36" t="s">
-        <v>33</v>
       </c>
       <c r="AK1" s="36" t="s">
         <v>33</v>
@@ -2336,51 +2333,51 @@
         <v>0</v>
       </c>
       <c r="E2" s="60">
-        <f t="shared" ref="E2:E26" si="0">IF(MOD($C2,64)/32&gt;=1,1,0)</f>
+        <f t="shared" ref="E2:E29" si="0">IF(MOD($C2,64)/32&gt;=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="F2" s="60">
-        <f t="shared" ref="F2:F26" si="1">IF(MOD($C2,32)/16&gt;=1,1,0)</f>
+        <f t="shared" ref="F2:F29" si="1">IF(MOD($C2,32)/16&gt;=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="G2" s="60">
-        <f t="shared" ref="G2:G26" si="2">IF(MOD($C2,16)/8&gt;=1,1,0)</f>
+        <f t="shared" ref="G2:G29" si="2">IF(MOD($C2,16)/8&gt;=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H2" s="60">
-        <f t="shared" ref="H2:H26" si="3">IF(MOD($C2,8)/4&gt;=1,1,0)</f>
+        <f t="shared" ref="H2:H29" si="3">IF(MOD($C2,8)/4&gt;=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I2" s="60">
-        <f t="shared" ref="I2:I26" si="4">IF(MOD($C2,4)/2&gt;=1,1,0)</f>
+        <f t="shared" ref="I2:I29" si="4">IF(MOD($C2,4)/2&gt;=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="J2" s="60">
-        <f t="shared" ref="J2:J26" si="5">IF(MOD($C2,2)&gt;=1,1,0)</f>
+        <f t="shared" ref="J2:J29" si="5">IF(MOD($C2,2)&gt;=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="K2" s="61">
-        <f t="shared" ref="K2:K26" si="6">IF(ISNUMBER($D2),IF(MOD($D2,64)/32&gt;=1,1,0),"X")</f>
+        <f t="shared" ref="K2:K29" si="6">IF(ISNUMBER($D2),IF(MOD($D2,64)/32&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
       <c r="L2" s="61">
-        <f t="shared" ref="L2:L26" si="7">IF(ISNUMBER($D2),IF(MOD($D2,32)/16&gt;=1,1,0),"X")</f>
+        <f t="shared" ref="L2:L29" si="7">IF(ISNUMBER($D2),IF(MOD($D2,32)/16&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
       <c r="M2" s="61">
-        <f t="shared" ref="M2:M26" si="8">IF(ISNUMBER($D2),IF(MOD($D2,16)/8&gt;=1,1,0),"X")</f>
+        <f t="shared" ref="M2:M29" si="8">IF(ISNUMBER($D2),IF(MOD($D2,16)/8&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
       <c r="N2" s="61">
-        <f t="shared" ref="N2:N26" si="9">IF(ISNUMBER($D2),IF(MOD($D2,8)/4&gt;=1,1,0),"X")</f>
+        <f t="shared" ref="N2:N29" si="9">IF(ISNUMBER($D2),IF(MOD($D2,8)/4&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
       <c r="O2" s="61">
-        <f t="shared" ref="O2:O26" si="10">IF(ISNUMBER($D2),IF(MOD($D2,4)/2&gt;=1,1,0),"X")</f>
+        <f t="shared" ref="O2:O29" si="10">IF(ISNUMBER($D2),IF(MOD($D2,4)/2&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
       <c r="P2" s="62">
-        <f t="shared" ref="P2:P26" si="11">IF(ISNUMBER($D2),IF(MOD($D2,2)&gt;=1,1,0),"X")</f>
+        <f t="shared" ref="P2:P29" si="11">IF(ISNUMBER($D2),IF(MOD($D2,2)&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
       <c r="Q2" s="63">
@@ -4173,9 +4170,7 @@
         <v>1</v>
       </c>
       <c r="Z19" s="27"/>
-      <c r="AA19" s="27">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="27"/>
       <c r="AB19" s="27"/>
       <c r="AC19" s="27"/>
       <c r="AD19" s="27"/>
@@ -4279,9 +4274,7 @@
         <v>1</v>
       </c>
       <c r="Z20" s="55"/>
-      <c r="AA20" s="55">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="55"/>
       <c r="AB20" s="55"/>
       <c r="AC20" s="55"/>
       <c r="AD20" s="55"/>
@@ -4489,9 +4482,7 @@
         <v>1</v>
       </c>
       <c r="Z22" s="55"/>
-      <c r="AA22" s="55">
-        <v>1</v>
-      </c>
+      <c r="AA22" s="55"/>
       <c r="AB22" s="55"/>
       <c r="AC22" s="55"/>
       <c r="AD22" s="55"/>
@@ -4703,9 +4694,7 @@
         <v>1</v>
       </c>
       <c r="Z24" s="55"/>
-      <c r="AA24" s="55">
-        <v>1</v>
-      </c>
+      <c r="AA24" s="55"/>
       <c r="AB24" s="55"/>
       <c r="AC24" s="55"/>
       <c r="AD24" s="55"/>
@@ -4809,9 +4798,7 @@
       </c>
       <c r="Y25" s="27"/>
       <c r="Z25" s="27"/>
-      <c r="AA25" s="27">
-        <v>1</v>
-      </c>
+      <c r="AA25" s="27"/>
       <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
@@ -4833,76 +4820,76 @@
       <c r="B26" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="80">
         <v>15</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="80">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="80">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="80">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J26" s="76">
+      <c r="J26" s="80">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K26" s="76" t="str">
+      <c r="K26" s="85" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L26" s="76" t="str">
+      <c r="L26" s="85" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M26" s="76" t="str">
+      <c r="M26" s="85" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="N26" s="76" t="str">
+      <c r="N26" s="85" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O26" s="76" t="str">
+      <c r="O26" s="85" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="P26" s="78" t="str">
+      <c r="P26" s="86" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="Q26" s="79">
-        <v>0</v>
-      </c>
-      <c r="R26" s="80">
+      <c r="Q26" s="78">
+        <v>0</v>
+      </c>
+      <c r="R26" s="79">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S26" s="80">
+      <c r="S26" s="79">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T26" s="80">
+      <c r="T26" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U26" s="80">
+      <c r="U26" s="79">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -4922,63 +4909,115 @@
       <c r="AE26" s="76"/>
       <c r="AF26" s="76"/>
       <c r="AG26" s="76"/>
-      <c r="AH26" s="81">
+      <c r="AH26" s="80">
         <v>1</v>
       </c>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="81"/>
-      <c r="AL26" s="81"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="81"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="80"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A27" s="82">
+      <c r="A27" s="81">
         <v>26</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="86"/>
+      <c r="C27" s="84">
+        <v>11</v>
+      </c>
       <c r="D27" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="82"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="86"/>
-      <c r="AJ27" s="86"/>
-      <c r="AK27" s="86"/>
-      <c r="AL27" s="86"/>
-      <c r="AM27" s="86"/>
-      <c r="AN27" s="86"/>
+      <c r="E27" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L27" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M27" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="N27" s="29" t="str">
+        <f t="shared" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="O27" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="P27" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="Q27" s="82">
+        <v>12</v>
+      </c>
+      <c r="R27" s="83">
+        <v>1</v>
+      </c>
+      <c r="S27" s="83">
+        <v>1</v>
+      </c>
+      <c r="T27" s="83">
+        <v>0</v>
+      </c>
+      <c r="U27" s="83">
+        <v>0</v>
+      </c>
+      <c r="V27" s="81"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="81">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="84"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="84"/>
+      <c r="AL27" s="84"/>
+      <c r="AM27" s="84"/>
+      <c r="AN27" s="84"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A28" s="77">
@@ -4987,35 +5026,85 @@
       <c r="B28" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="80">
         <v>32</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="79">
+      <c r="E28" s="80">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L28" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M28" s="85" t="str">
+        <f t="shared" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="N28" s="85" t="str">
+        <f t="shared" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="O28" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="P28" s="86" t="str">
+        <f t="shared" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="Q28" s="78">
         <v>5</v>
       </c>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="76"/>
+      <c r="R28" s="79">
+        <v>0</v>
+      </c>
+      <c r="S28" s="79">
+        <v>1</v>
+      </c>
+      <c r="T28" s="79">
+        <v>0</v>
+      </c>
+      <c r="U28" s="79">
+        <v>1</v>
+      </c>
+      <c r="V28" s="76">
+        <v>1</v>
+      </c>
       <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
+      <c r="X28" s="76">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="76">
+        <v>1</v>
+      </c>
       <c r="Z28" s="76"/>
       <c r="AA28" s="76"/>
       <c r="AB28" s="76"/>
@@ -5024,67 +5113,113 @@
       <c r="AE28" s="76"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
-      <c r="AH28" s="81"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="81"/>
-      <c r="AK28" s="81"/>
-      <c r="AL28" s="81"/>
-      <c r="AM28" s="81"/>
-      <c r="AN28" s="81"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="80">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="80"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="80"/>
+      <c r="AN28" s="80"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A29" s="82">
+      <c r="A29" s="81">
         <v>28</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="84">
         <v>1</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="84">
-        <v>12</v>
-      </c>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="82"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="86">
+      <c r="E29" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="28">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AJ29" s="86"/>
-      <c r="AK29" s="86"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="86"/>
-      <c r="AN29" s="86"/>
+      <c r="K29" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L29" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M29" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="N29" s="29" t="str">
+        <f t="shared" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="O29" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="P29" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="Q29" s="82">
+        <v>11</v>
+      </c>
+      <c r="R29" s="83">
+        <v>1</v>
+      </c>
+      <c r="S29" s="83">
+        <v>0</v>
+      </c>
+      <c r="T29" s="83">
+        <v>1</v>
+      </c>
+      <c r="U29" s="83">
+        <v>1</v>
+      </c>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="84"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A30" s="41"/>
@@ -6693,7 +6828,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="11">
+  <dataValidations xWindow="222" yWindow="724" count="11">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="R1:U1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
@@ -6718,8 +6853,9 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S82" sqref="S82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z82" sqref="Z82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6871,7 +7007,7 @@
       </c>
       <c r="AG1" s="36" t="str">
         <f>真值表!AH1</f>
-        <v>JUI</v>
+        <v>LUI</v>
       </c>
       <c r="AH1" s="36" t="str">
         <f>真值表!AI1</f>
@@ -6879,7 +7015,7 @@
       </c>
       <c r="AI1" s="36" t="str">
         <f>真值表!AJ1</f>
-        <v>XXX</v>
+        <v>LB</v>
       </c>
       <c r="AJ1" s="36" t="str">
         <f>真值表!AK1</f>
@@ -9687,7 +9823,7 @@
       </c>
       <c r="Z19" s="35" t="str">
         <f>IF(真值表!AA19=1,$P19&amp;"+","")</f>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
+        <v/>
       </c>
       <c r="AA19" s="35" t="str">
         <f>IF(真值表!AB19=1,$P19&amp;"+","")</f>
@@ -9845,7 +9981,7 @@
       </c>
       <c r="Z20" s="35" t="str">
         <f>IF(真值表!AA20=1,$P20&amp;"+","")</f>
-        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
+        <v/>
       </c>
       <c r="AA20" s="35" t="str">
         <f>IF(真值表!AB20=1,$P20&amp;"+","")</f>
@@ -10161,7 +10297,7 @@
       </c>
       <c r="Z22" s="35" t="str">
         <f>IF(真值表!AA22=1,$P22&amp;"+","")</f>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
+        <v/>
       </c>
       <c r="AA22" s="35" t="str">
         <f>IF(真值表!AB22=1,$P22&amp;"+","")</f>
@@ -10477,7 +10613,7 @@
       </c>
       <c r="Z24" s="35" t="str">
         <f>IF(真值表!AA24=1,$P24&amp;"+","")</f>
-        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v/>
       </c>
       <c r="AA24" s="35" t="str">
         <f>IF(真值表!AB24=1,$P24&amp;"+","")</f>
@@ -10635,7 +10771,7 @@
       </c>
       <c r="Z25" s="35" t="str">
         <f>IF(真值表!AA25=1,$P25&amp;"+","")</f>
-        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v/>
       </c>
       <c r="AA25" s="35" t="str">
         <f>IF(真值表!AB25=1,$P25&amp;"+","")</f>
@@ -10855,7 +10991,7 @@
       </c>
       <c r="B27" s="28">
         <f>真值表!C27</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>真值表!D27</f>
@@ -10871,7 +11007,7 @@
       </c>
       <c r="F27" s="26" t="str">
         <f>IF(真值表!G27=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G27=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v>~OP3&amp;</v>
+        <v xml:space="preserve"> OP3&amp;</v>
       </c>
       <c r="G27" s="26" t="str">
         <f>IF(真值表!H27=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H27=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
@@ -10879,47 +11015,47 @@
       </c>
       <c r="H27" s="26" t="str">
         <f>IF(真值表!I27=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I27=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v>~OP1&amp;</v>
+        <v xml:space="preserve"> OP1&amp;</v>
       </c>
       <c r="I27" s="26" t="str">
         <f>IF(真值表!J27=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J27=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v>~OP0&amp;</v>
+        <v xml:space="preserve"> OP0&amp;</v>
       </c>
       <c r="J27" s="32" t="str">
         <f>IF(真值表!K27=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K27=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v>~F5&amp;</v>
+        <v/>
       </c>
       <c r="K27" s="32" t="str">
         <f>IF(真值表!L27=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L27=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v>~F4&amp;</v>
+        <v/>
       </c>
       <c r="L27" s="32" t="str">
         <f>IF(真值表!M27=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M27=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v>~F3&amp;</v>
+        <v/>
       </c>
       <c r="M27" s="32" t="str">
         <f>IF(真值表!N27=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N27=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v>~F2&amp;</v>
+        <v/>
       </c>
       <c r="N27" s="32" t="str">
         <f>IF(真值表!O27=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O27=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v>~F1&amp;</v>
+        <v/>
       </c>
       <c r="O27" s="32" t="str">
         <f>IF(真值表!P27=1," "&amp;真值表!P$1&amp;"&amp;",IF(真值表!P27=0,"~"&amp;真值表!P$1&amp;"&amp;",""))</f>
-        <v>~F0&amp;</v>
+        <v/>
       </c>
       <c r="P27" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0</v>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="Q27" s="35" t="str">
         <f>IF(真值表!R27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="R27" s="35" t="str">
         <f>IF(真值表!S27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="S27" s="35" t="str">
         <f>IF(真值表!T27=1,$P27&amp;"+","")</f>
@@ -10939,11 +11075,11 @@
       </c>
       <c r="W27" s="35" t="str">
         <f>IF(真值表!X27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="X27" s="35" t="str">
         <f>IF(真值表!Y27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="Y27" s="35" t="str">
         <f>IF(真值表!Z27=1,$P27&amp;"+","")</f>
@@ -11021,7 +11157,7 @@
       </c>
       <c r="D28" s="26" t="str">
         <f>IF(真值表!E28=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E28=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v>~OP5&amp;</v>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="E28" s="26" t="str">
         <f>IF(真值表!F28=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F28=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11045,31 +11181,31 @@
       </c>
       <c r="J28" s="32" t="str">
         <f>IF(真值表!K28=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K28=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v>~F5&amp;</v>
+        <v/>
       </c>
       <c r="K28" s="32" t="str">
         <f>IF(真值表!L28=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L28=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v>~F4&amp;</v>
+        <v/>
       </c>
       <c r="L28" s="32" t="str">
         <f>IF(真值表!M28=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M28=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v>~F3&amp;</v>
+        <v/>
       </c>
       <c r="M28" s="32" t="str">
         <f>IF(真值表!N28=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N28=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v>~F2&amp;</v>
+        <v/>
       </c>
       <c r="N28" s="32" t="str">
         <f>IF(真值表!O28=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O28=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v>~F1&amp;</v>
+        <v/>
       </c>
       <c r="O28" s="32" t="str">
         <f>IF(真值表!P28=1," "&amp;真值表!P$1&amp;"&amp;",IF(真值表!P28=0,"~"&amp;真值表!P$1&amp;"&amp;",""))</f>
-        <v>~F0&amp;</v>
+        <v/>
       </c>
       <c r="P28" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0</v>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0</v>
       </c>
       <c r="Q28" s="35" t="str">
         <f>IF(真值表!R28=1,$P28&amp;"+","")</f>
@@ -11077,7 +11213,7 @@
       </c>
       <c r="R28" s="35" t="str">
         <f>IF(真值表!S28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="S28" s="35" t="str">
         <f>IF(真值表!T28=1,$P28&amp;"+","")</f>
@@ -11085,11 +11221,11 @@
       </c>
       <c r="T28" s="35" t="str">
         <f>IF(真值表!U28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="U28" s="35" t="str">
         <f>IF(真值表!V28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="V28" s="35" t="str">
         <f>IF(真值表!W28=1,$P28&amp;"+","")</f>
@@ -11097,11 +11233,11 @@
       </c>
       <c r="W28" s="35" t="str">
         <f>IF(真值表!X28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="X28" s="35" t="str">
         <f>IF(真值表!Y28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="Y28" s="35" t="str">
         <f>IF(真值表!Z28=1,$P28&amp;"+","")</f>
@@ -11145,7 +11281,7 @@
       </c>
       <c r="AI28" s="35" t="str">
         <f>IF(真值表!AJ28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AJ28" s="35" t="str">
         <f>IF(真值表!AK28=1,$P28&amp;"+","")</f>
@@ -11199,39 +11335,39 @@
       </c>
       <c r="I29" s="26" t="str">
         <f>IF(真值表!J29=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J29=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v>~OP0&amp;</v>
+        <v xml:space="preserve"> OP0&amp;</v>
       </c>
       <c r="J29" s="32" t="str">
         <f>IF(真值表!K29=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K29=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v>~F5&amp;</v>
+        <v/>
       </c>
       <c r="K29" s="32" t="str">
         <f>IF(真值表!L29=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L29=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v>~F4&amp;</v>
+        <v/>
       </c>
       <c r="L29" s="32" t="str">
         <f>IF(真值表!M29=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M29=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v>~F3&amp;</v>
+        <v/>
       </c>
       <c r="M29" s="32" t="str">
         <f>IF(真值表!N29=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N29=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v>~F2&amp;</v>
+        <v/>
       </c>
       <c r="N29" s="32" t="str">
         <f>IF(真值表!O29=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O29=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v>~F1&amp;</v>
+        <v/>
       </c>
       <c r="O29" s="32" t="str">
         <f>IF(真值表!P29=1," "&amp;真值表!P$1&amp;"&amp;",IF(真值表!P29=0,"~"&amp;真值表!P$1&amp;"&amp;",""))</f>
-        <v>~F0&amp;</v>
+        <v/>
       </c>
       <c r="P29" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="Q29" s="35" t="str">
         <f>IF(真值表!R29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="R29" s="35" t="str">
         <f>IF(真值表!S29=1,$P29&amp;"+","")</f>
@@ -11239,11 +11375,11 @@
       </c>
       <c r="S29" s="35" t="str">
         <f>IF(真值表!T29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="T29" s="35" t="str">
         <f>IF(真值表!U29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="U29" s="35" t="str">
         <f>IF(真值表!V29=1,$P29&amp;"+","")</f>
@@ -11299,7 +11435,7 @@
       </c>
       <c r="AH29" s="35" t="str">
         <f>IF(真值表!AI29=1,$P29&amp;"+","")</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AI29" s="35" t="str">
         <f>IF(真值表!AJ29=1,$P29&amp;"+","")</f>
@@ -19134,43 +19270,43 @@
       </c>
     </row>
     <row r="82" spans="1:51" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A82" s="88" t="s">
+      <c r="A82" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="B82" s="88"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="88"/>
-      <c r="E82" s="88"/>
-      <c r="F82" s="88"/>
-      <c r="G82" s="88"/>
-      <c r="H82" s="88"/>
-      <c r="I82" s="88"/>
-      <c r="J82" s="88"/>
-      <c r="K82" s="88"/>
-      <c r="L82" s="88"/>
-      <c r="M82" s="88"/>
-      <c r="N82" s="88"/>
-      <c r="O82" s="88"/>
-      <c r="P82" s="88"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="87"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="87"/>
+      <c r="H82" s="87"/>
+      <c r="I82" s="87"/>
+      <c r="J82" s="87"/>
+      <c r="K82" s="87"/>
+      <c r="L82" s="87"/>
+      <c r="M82" s="87"/>
+      <c r="N82" s="87"/>
+      <c r="O82" s="87"/>
+      <c r="P82" s="87"/>
       <c r="Q82" s="54" t="str">
         <f t="shared" ref="Q82:T82" si="3">IF(LEN(Q83)&gt;1,LEFT(Q83,LEN(Q83)-1),"")</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="R82" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0</v>
       </c>
       <c r="S82" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="T82" s="56" t="str">
         <f t="shared" si="3"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="U82" s="54" t="str">
         <f t="shared" ref="U82:W82" si="4">IF(LEN(U83)&gt;1,LEFT(U83,LEN(U83)-1),"")</f>
-        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0</v>
       </c>
       <c r="V82" s="54" t="str">
         <f t="shared" si="4"/>
@@ -19178,11 +19314,11 @@
       </c>
       <c r="W82" s="56" t="str">
         <f t="shared" si="4"/>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0</v>
       </c>
       <c r="X82" s="54" t="str">
         <f>IF(LEN(X83)&gt;1,LEFT(X83,LEN(X83)-1),"")</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0</v>
       </c>
       <c r="Y82" s="54" t="str">
         <f t="shared" ref="Y82" si="5">IF(LEN(Y83)&gt;1,LEFT(Y83,LEN(Y83)-1),"")</f>
@@ -19190,7 +19326,7 @@
       </c>
       <c r="Z82" s="56" t="str">
         <f t="shared" ref="Z82" si="6">IF(LEN(Z83)&gt;1,LEFT(Z83,LEN(Z83)-1),"")</f>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="AA82" s="54" t="str">
         <f t="shared" ref="AA82:AB82" si="7">IF(LEN(AA83)&gt;1,LEFT(AA83,LEN(AA83)-1),"")</f>
@@ -19222,11 +19358,11 @@
       </c>
       <c r="AH82" s="54" t="str">
         <f t="shared" ref="AH82" si="12">IF(LEN(AH83)&gt;1,LEFT(AH83,LEN(AH83)-1),"")</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="AI82" s="54" t="str">
         <f t="shared" ref="AI82:AJ82" si="13">IF(LEN(AI83)&gt;1,LEFT(AI83,LEN(AI83)-1),"")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0</v>
       </c>
       <c r="AJ82" s="54" t="str">
         <f t="shared" si="13"/>
@@ -19247,195 +19383,161 @@
     </row>
     <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="Q83" t="str">
-        <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
+        <f t="shared" ref="Q83:AY83" si="17">CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="R83" t="str">
-        <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
-)</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <f t="shared" si="17"/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="S83" t="str">
-        <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
-)</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
+        <f t="shared" si="17"/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="T83" t="str">
-        <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
-)</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <f t="shared" si="17"/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="U83" t="str">
-        <f>CONCATENATE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32,U33,U34,U35,U36,U37,U38,U39,U40,U41,U42,U43,U44,U45,U46,U47,U48,U49,U50,U51,U52,U53,U54,U55,U56,U57,
-)</f>
-        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="V83" t="str">
-        <f>CONCATENATE(V2,V3,V4,V5,V6,V7,V8,V9,V10,V11,V12,V13,V14,V15,V16,V17,V18,V19,V20,V21,V22,V23,V24,V25,V26,V27,V28,V29,V30,V31,V32,V33,V34,V35,V36,V37,V38,V39,V40,V41,V42,V43,V44,V45,V46,V47,V48,V49,V50,V51,V52,V53,V54,V55,V56,V57,
-)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="W83" t="str">
-        <f>CONCATENATE(W2,W3,W4,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W16,W17,W18,W19,W20,W21,W22,W23,W24,W25,W26,W27,W28,W29,W30,W31,W32,W33,W34,W35,W36,W37,W38,W39,W40,W41,W42,W43,W44,W45,W46,W47,W48,W49,W50,W51,W52,W53,W54,W55,W56,W57,
-)</f>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp; OP1&amp; OP0+</v>
+        <f t="shared" si="17"/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="X83" t="str">
-        <f>CONCATENATE(X2,X3,X4,X5,X6,X7,X8,X9,X10,X11,X12,X13,X14,X15,X16,X17,X18,X19,X20,X21,X22,X23,X24,X25,X26,X27,X28,X29,X30,X31,X32,X33,X34,X35,X36,X37,X38,X39,X40,X41,X42,X43,X44,X45,X46,X47,X48,X49,X50,X51,X52,X53,X54,X55,X56,X57,
-)</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp; OP1&amp; OP0+</v>
+        <f t="shared" si="17"/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="Y83" t="str">
-        <f>CONCATENATE(Y2,Y3,Y4,Y5,Y6,Y7,Y8,Y9,Y10,Y11,Y12,Y13,Y14,Y15,Y16,Y17,Y18,Y19,Y20,Y21,Y22,Y23,Y24,Y25,Y26,Y27,Y28,Y29,Y30,Y31,Y32,Y33,Y34,Y35,Y36,Y37,Y38,Y39,Y40,Y41,Y42,Y43,Y44,Y45,Y46,Y47,Y48,Y49,Y50,Y51,Y52,Y53,Y54,Y55,Y56,Y57,
-)</f>
+        <f t="shared" si="17"/>
         <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="Z83" t="str">
-        <f>CONCATENATE(Z2,Z3,Z4,Z5,Z6,Z7,Z8,Z9,Z10,Z11,Z12,Z13,Z14,Z15,Z16,Z17,Z18,Z19,Z20,Z21,Z22,Z23,Z24,Z25,Z26,Z27,Z28,Z29,Z30,Z31,Z32,Z33,Z34,Z35,Z36,Z37,Z38,Z39,Z40,Z41,Z42,Z43,Z44,Z45,Z46,Z47,Z48,Z49,Z50,Z51,Z52,Z53,Z54,Z55,Z56,Z57,
-)</f>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <f t="shared" si="17"/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AA83" t="str">
-        <f>CONCATENATE(AA2,AA3,AA4,AA5,AA6,AA7,AA8,AA9,AA10,AA11,AA12,AA13,AA14,AA15,AA16,AA17,AA18,AA19,AA20,AA21,AA22,AA23,AA24,AA25,AA26,AA27,AA28,AA29,AA30,AA31,AA32,AA33,AA34,AA35,AA36,AA37,AA38,AA39,AA40,AA41,AA42,AA43,AA44,AA45,AA46,AA47,AA48,AA49,AA50,AA51,AA52,AA53,AA54,AA55,AA56,AA57,
-)</f>
+        <f t="shared" si="17"/>
         <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AB83" t="str">
-        <f>CONCATENATE(AB2,AB3,AB4,AB5,AB6,AB7,AB8,AB9,AB10,AB11,AB12,AB13,AB14,AB15,AB16,AB17,AB18,AB19,AB20,AB21,AB22,AB23,AB24,AB25,AB26,AB27,AB28,AB29,AB30,AB31,AB32,AB33,AB34,AB35,AB36,AB37,AB38,AB39,AB40,AB41,AB42,AB43,AB44,AB45,AB46,AB47,AB48,AB49,AB50,AB51,AB52,AB53,AB54,AB55,AB56,AB57,
-)</f>
+        <f t="shared" si="17"/>
         <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AC83" t="str">
-        <f>CONCATENATE(AC2,AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,AC53,AC54,AC55,AC56,AC57,
-)</f>
+        <f t="shared" si="17"/>
         <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AD83" t="str">
-        <f>CONCATENATE(AD2,AD3,AD4,AD5,AD6,AD7,AD8,AD9,AD10,AD11,AD12,AD13,AD14,AD15,AD16,AD17,AD18,AD19,AD20,AD21,AD22,AD23,AD24,AD25,AD26,AD27,AD28,AD29,AD30,AD31,AD32,AD33,AD34,AD35,AD36,AD37,AD38,AD39,AD40,AD41,AD42,AD43,AD44,AD45,AD46,AD47,AD48,AD49,AD50,AD51,AD52,AD53,AD54,AD55,AD56,AD57,
-)</f>
+        <f t="shared" si="17"/>
         <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AE83" t="str">
-        <f>CONCATENATE(AE2,AE3,AE4,AE5,AE6,AE7,AE8,AE9,AE10,AE11,AE12,AE13,AE14,AE15,AE16,AE17,AE18,AE19,AE20,AE21,AE22,AE23,AE24,AE25,AE26,AE27,AE28,AE29,AE30,AE31,AE32,AE33,AE34,AE35,AE36,AE37,AE38,AE39,AE40,AE41,AE42,AE43,AE44,AE45,AE46,AE47,AE48,AE49,AE50,AE51,AE52,AE53,AE54,AE55,AE56,AE57,
-)</f>
+        <f t="shared" si="17"/>
         <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AF83" t="str">
-        <f>CONCATENATE(AF2,AF3,AF4,AF5,AF6,AF7,AF8,AF9,AF10,AF11,AF12,AF13,AF14,AF15,AF16,AF17,AF18,AF19,AF20,AF21,AF22,AF23,AF24,AF25,AF26,AF27,AF28,AF29,AF30,AF31,AF32,AF33,AF34,AF35,AF36,AF37,AF38,AF39,AF40,AF41,AF42,AF43,AF44,AF45,AF46,AF47,AF48,AF49,AF50,AF51,AF52,AF53,AF54,AF55,AF56,AF57,
-)</f>
+        <f t="shared" si="17"/>
         <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AG83" t="str">
-        <f>CONCATENATE(AG2,AG3,AG4,AG5,AG6,AG7,AG8,AG9,AG10,AG11,AG12,AG13,AG14,AG15,AG16,AG17,AG18,AG19,AG20,AG21,AG22,AG23,AG24,AG25,AG26,AG27,AG28,AG29,AG30,AG31,AG32,AG33,AG34,AG35,AG36,AG37,AG38,AG39,AG40,AG41,AG42,AG43,AG44,AG45,AG46,AG47,AG48,AG49,AG50,AG51,AG52,AG53,AG54,AG55,AG56,AG57,
-)</f>
+        <f t="shared" si="17"/>
         <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AH83" t="str">
-        <f>CONCATENATE(AH2,AH3,AH4,AH5,AH6,AH7,AH8,AH9,AH10,AH11,AH12,AH13,AH14,AH15,AH16,AH17,AH18,AH19,AH20,AH21,AH22,AH23,AH24,AH25,AH26,AH27,AH28,AH29,AH30,AH31,AH32,AH33,AH34,AH35,AH36,AH37,AH38,AH39,AH40,AH41,AH42,AH43,AH44,AH45,AH46,AH47,AH48,AH49,AH50,AH51,AH52,AH53,AH54,AH55,AH56,AH57,
-)</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
+        <f t="shared" si="17"/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AI83" t="str">
-        <f>CONCATENATE(AI2,AI3,AI4,AI5,AI6,AI7,AI8,AI9,AI10,AI11,AI12,AI13,AI14,AI15,AI16,AI17,AI18,AI19,AI20,AI21,AI22,AI23,AI24,AI25,AI26,AI27,AI28,AI29,AI30,AI31,AI32,AI33,AI34,AI35,AI36,AI37,AI38,AI39,AI40,AI41,AI42,AI43,AI44,AI45,AI46,AI47,AI48,AI49,AI50,AI51,AI52,AI53,AI54,AI55,AI56,AI57,
-)</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AJ83" t="str">
-        <f>CONCATENATE(AJ2,AJ3,AJ4,AJ5,AJ6,AJ7,AJ8,AJ9,AJ10,AJ11,AJ12,AJ13,AJ14,AJ15,AJ16,AJ17,AJ18,AJ19,AJ20,AJ21,AJ22,AJ23,AJ24,AJ25,AJ26,AJ27,AJ28,AJ29,AJ30,AJ31,AJ32,AJ33,AJ34,AJ35,AJ36,AJ37,AJ38,AJ39,AJ40,AJ41,AJ42,AJ43,AJ44,AJ45,AJ46,AJ47,AJ48,AJ49,AJ50,AJ51,AJ52,AJ53,AJ54,AJ55,AJ56,AJ57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK83" t="str">
-        <f>CONCATENATE(AK2,AK3,AK4,AK5,AK6,AK7,AK8,AK9,AK10,AK11,AK12,AK13,AK14,AK15,AK16,AK17,AK18,AK19,AK20,AK21,AK22,AK23,AK24,AK25,AK26,AK27,AK28,AK29,AK30,AK31,AK32,AK33,AK34,AK35,AK36,AK37,AK38,AK39,AK40,AK41,AK42,AK43,AK44,AK45,AK46,AK47,AK48,AK49,AK50,AK51,AK52,AK53,AK54,AK55,AK56,AK57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AL83" t="str">
-        <f>CONCATENATE(AL2,AL3,AL4,AL5,AL6,AL7,AL8,AL9,AL10,AL11,AL12,AL13,AL14,AL15,AL16,AL17,AL18,AL19,AL20,AL21,AL22,AL23,AL24,AL25,AL26,AL27,AL28,AL29,AL30,AL31,AL32,AL33,AL34,AL35,AL36,AL37,AL38,AL39,AL40,AL41,AL42,AL43,AL44,AL45,AL46,AL47,AL48,AL49,AL50,AL51,AL52,AL53,AL54,AL55,AL56,AL57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM83" t="str">
-        <f>CONCATENATE(AM2,AM3,AM4,AM5,AM6,AM7,AM8,AM9,AM10,AM11,AM12,AM13,AM14,AM15,AM16,AM17,AM18,AM19,AM20,AM21,AM22,AM23,AM24,AM25,AM26,AM27,AM28,AM29,AM30,AM31,AM32,AM33,AM34,AM35,AM36,AM37,AM38,AM39,AM40,AM41,AM42,AM43,AM44,AM45,AM46,AM47,AM48,AM49,AM50,AM51,AM52,AM53,AM54,AM55,AM56,AM57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AN83" t="str">
-        <f>CONCATENATE(AN2,AN3,AN4,AN5,AN6,AN7,AN8,AN9,AN10,AN11,AN12,AN13,AN14,AN15,AN16,AN17,AN18,AN19,AN20,AN21,AN22,AN23,AN24,AN25,AN26,AN27,AN28,AN29,AN30,AN31,AN32,AN33,AN34,AN35,AN36,AN37,AN38,AN39,AN40,AN41,AN42,AN43,AN44,AN45,AN46,AN47,AN48,AN49,AN50,AN51,AN52,AN53,AN54,AN55,AN56,AN57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AO83" t="str">
-        <f>CONCATENATE(AO2,AO3,AO4,AO5,AO6,AO7,AO8,AO9,AO10,AO11,AO12,AO13,AO14,AO15,AO16,AO17,AO18,AO19,AO20,AO21,AO22,AO23,AO24,AO25,AO26,AO27,AO28,AO29,AO30,AO31,AO32,AO33,AO34,AO35,AO36,AO37,AO38,AO39,AO40,AO41,AO42,AO43,AO44,AO45,AO46,AO47,AO48,AO49,AO50,AO51,AO52,AO53,AO54,AO55,AO56,AO57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AP83" t="str">
-        <f>CONCATENATE(AP2,AP3,AP4,AP5,AP6,AP7,AP8,AP9,AP10,AP11,AP12,AP13,AP14,AP15,AP16,AP17,AP18,AP19,AP20,AP21,AP22,AP23,AP24,AP25,AP26,AP27,AP28,AP29,AP30,AP31,AP32,AP33,AP34,AP35,AP36,AP37,AP38,AP39,AP40,AP41,AP42,AP43,AP44,AP45,AP46,AP47,AP48,AP49,AP50,AP51,AP52,AP53,AP54,AP55,AP56,AP57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AQ83" t="str">
-        <f>CONCATENATE(AQ2,AQ3,AQ4,AQ5,AQ6,AQ7,AQ8,AQ9,AQ10,AQ11,AQ12,AQ13,AQ14,AQ15,AQ16,AQ17,AQ18,AQ19,AQ20,AQ21,AQ22,AQ23,AQ24,AQ25,AQ26,AQ27,AQ28,AQ29,AQ30,AQ31,AQ32,AQ33,AQ34,AQ35,AQ36,AQ37,AQ38,AQ39,AQ40,AQ41,AQ42,AQ43,AQ44,AQ45,AQ46,AQ47,AQ48,AQ49,AQ50,AQ51,AQ52,AQ53,AQ54,AQ55,AQ56,AQ57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AR83" t="str">
-        <f>CONCATENATE(AR2,AR3,AR4,AR5,AR6,AR7,AR8,AR9,AR10,AR11,AR12,AR13,AR14,AR15,AR16,AR17,AR18,AR19,AR20,AR21,AR22,AR23,AR24,AR25,AR26,AR27,AR28,AR29,AR30,AR31,AR32,AR33,AR34,AR35,AR36,AR37,AR38,AR39,AR40,AR41,AR42,AR43,AR44,AR45,AR46,AR47,AR48,AR49,AR50,AR51,AR52,AR53,AR54,AR55,AR56,AR57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AS83" t="str">
-        <f>CONCATENATE(AS2,AS3,AS4,AS5,AS6,AS7,AS8,AS9,AS10,AS11,AS12,AS13,AS14,AS15,AS16,AS17,AS18,AS19,AS20,AS21,AS22,AS23,AS24,AS25,AS26,AS27,AS28,AS29,AS30,AS31,AS32,AS33,AS34,AS35,AS36,AS37,AS38,AS39,AS40,AS41,AS42,AS43,AS44,AS45,AS46,AS47,AS48,AS49,AS50,AS51,AS52,AS53,AS54,AS55,AS56,AS57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AT83" t="str">
-        <f>CONCATENATE(AT2,AT3,AT4,AT5,AT6,AT7,AT8,AT9,AT10,AT11,AT12,AT13,AT14,AT15,AT16,AT17,AT18,AT19,AT20,AT21,AT22,AT23,AT24,AT25,AT26,AT27,AT28,AT29,AT30,AT31,AT32,AT33,AT34,AT35,AT36,AT37,AT38,AT39,AT40,AT41,AT42,AT43,AT44,AT45,AT46,AT47,AT48,AT49,AT50,AT51,AT52,AT53,AT54,AT55,AT56,AT57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AU83" t="str">
-        <f>CONCATENATE(AU2,AU3,AU4,AU5,AU6,AU7,AU8,AU9,AU10,AU11,AU12,AU13,AU14,AU15,AU16,AU17,AU18,AU19,AU20,AU21,AU22,AU23,AU24,AU25,AU26,AU27,AU28,AU29,AU30,AU31,AU32,AU33,AU34,AU35,AU36,AU37,AU38,AU39,AU40,AU41,AU42,AU43,AU44,AU45,AU46,AU47,AU48,AU49,AU50,AU51,AU52,AU53,AU54,AU55,AU56,AU57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AV83" t="str">
-        <f>CONCATENATE(AV2,AV3,AV4,AV5,AV6,AV7,AV8,AV9,AV10,AV11,AV12,AV13,AV14,AV15,AV16,AV17,AV18,AV19,AV20,AV21,AV22,AV23,AV24,AV25,AV26,AV27,AV28,AV29,AV30,AV31,AV32,AV33,AV34,AV35,AV36,AV37,AV38,AV39,AV40,AV41,AV42,AV43,AV44,AV45,AV46,AV47,AV48,AV49,AV50,AV51,AV52,AV53,AV54,AV55,AV56,AV57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW83" t="str">
-        <f>CONCATENATE(AW2,AW3,AW4,AW5,AW6,AW7,AW8,AW9,AW10,AW11,AW12,AW13,AW14,AW15,AW16,AW17,AW18,AW19,AW20,AW21,AW22,AW23,AW24,AW25,AW26,AW27,AW28,AW29,AW30,AW31,AW32,AW33,AW34,AW35,AW36,AW37,AW38,AW39,AW40,AW41,AW42,AW43,AW44,AW45,AW46,AW47,AW48,AW49,AW50,AW51,AW52,AW53,AW54,AW55,AW56,AW57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AX83" t="str">
-        <f>CONCATENATE(AX2,AX3,AX4,AX5,AX6,AX7,AX8,AX9,AX10,AX11,AX12,AX13,AX14,AX15,AX16,AX17,AX18,AX19,AX20,AX21,AX22,AX23,AX24,AX25,AX26,AX27,AX28,AX29,AX30,AX31,AX32,AX33,AX34,AX35,AX36,AX37,AX38,AX39,AX40,AX41,AX42,AX43,AX44,AX45,AX46,AX47,AX48,AX49,AX50,AX51,AX52,AX53,AX54,AX55,AX56,AX57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AY83" t="str">
-        <f>CONCATENATE(AY2,AY3,AY4,AY5,AY6,AY7,AY8,AY9,AY10,AY11,AY12,AY13,AY14,AY15,AY16,AY17,AY18,AY19,AY20,AY21,AY22,AY23,AY24,AY25,AY26,AY27,AY28,AY29,AY30,AY31,AY32,AY33,AY34,AY35,AY36,AY37,AY38,AY39,AY40,AY41,AY42,AY43,AY44,AY45,AY46,AY47,AY48,AY49,AY50,AY51,AY52,AY53,AY54,AY55,AY56,AY57,
-)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:51" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="V85" s="89" t="s">
+      <c r="V85" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="W85" s="89"/>
-      <c r="X85" s="89"/>
-      <c r="Y85" s="89"/>
-      <c r="Z85" s="89"/>
-      <c r="AA85" s="89"/>
-      <c r="AB85" s="89"/>
-      <c r="AC85" s="89"/>
-      <c r="AD85" s="89"/>
-      <c r="AE85" s="89"/>
-      <c r="AF85" s="89"/>
+      <c r="W85" s="88"/>
+      <c r="X85" s="88"/>
+      <c r="Y85" s="88"/>
+      <c r="Z85" s="88"/>
+      <c r="AA85" s="88"/>
+      <c r="AB85" s="88"/>
+      <c r="AC85" s="88"/>
+      <c r="AD85" s="88"/>
+      <c r="AE85" s="88"/>
+      <c r="AF85" s="88"/>
     </row>
     <row r="87" spans="1:51" ht="16.2" x14ac:dyDescent="0.25">
       <c r="R87" s="58" t="s">
@@ -19676,7 +19778,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/课程设计/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
+++ b/课程设计/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerOrganization\课程设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B539A-53BC-4D98-9434-BD79456DF41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5C1FFA-CBFB-4F9F-8F17-1A4C915518BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="7824" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
   <si>
     <t>#</t>
   </si>
@@ -879,6 +879,22 @@
   </si>
   <si>
     <t>LB</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_Used</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_Used</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -2171,7 +2187,10 @@
   <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+      <pane xSplit="25" ySplit="20" topLeftCell="AG21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2182,7 +2201,7 @@
     <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
     <col min="5" max="16" width="4.6640625" style="37" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="37" customWidth="1"/>
-    <col min="18" max="21" width="3.6640625" style="37" customWidth="1"/>
+    <col min="18" max="21" width="3.6640625" style="37" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="10.21875" style="37" customWidth="1"/>
     <col min="23" max="23" width="9.21875" style="37" customWidth="1"/>
     <col min="24" max="24" width="10.6640625" style="37" customWidth="1"/>
@@ -2304,10 +2323,10 @@
         <v>125</v>
       </c>
       <c r="AK1" s="36" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="36" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="AM1" s="36" t="s">
         <v>33</v>
@@ -2419,7 +2438,9 @@
       <c r="AI2" s="60"/>
       <c r="AJ2" s="60"/>
       <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
+      <c r="AL2" s="60">
+        <v>1</v>
+      </c>
       <c r="AM2" s="60"/>
       <c r="AN2" s="60"/>
     </row>
@@ -2523,7 +2544,9 @@
       <c r="AI3" s="28"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
+      <c r="AL3" s="28">
+        <v>1</v>
+      </c>
       <c r="AM3" s="28"/>
       <c r="AN3" s="28"/>
     </row>
@@ -2626,8 +2649,12 @@
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
       <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
+      <c r="AK4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL4" s="24">
+        <v>1</v>
+      </c>
       <c r="AM4" s="24"/>
       <c r="AN4" s="24"/>
     </row>
@@ -2730,8 +2757,12 @@
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
       <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
+      <c r="AK5" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="28">
+        <v>1</v>
+      </c>
       <c r="AM5" s="28"/>
       <c r="AN5" s="28"/>
     </row>
@@ -2834,8 +2865,12 @@
       <c r="AH6" s="24"/>
       <c r="AI6" s="24"/>
       <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
+      <c r="AK6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="24">
+        <v>1</v>
+      </c>
       <c r="AM6" s="24"/>
       <c r="AN6" s="24"/>
     </row>
@@ -2938,8 +2973,12 @@
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
       <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
+      <c r="AK7" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="28">
+        <v>1</v>
+      </c>
       <c r="AM7" s="28"/>
       <c r="AN7" s="28"/>
     </row>
@@ -3042,8 +3081,12 @@
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
+      <c r="AK8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="24">
+        <v>1</v>
+      </c>
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
     </row>
@@ -3146,8 +3189,12 @@
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
       <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
+      <c r="AK9" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="28">
+        <v>1</v>
+      </c>
       <c r="AM9" s="28"/>
       <c r="AN9" s="28"/>
     </row>
@@ -3250,8 +3297,12 @@
       <c r="AH10" s="24"/>
       <c r="AI10" s="24"/>
       <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
+      <c r="AK10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="24">
+        <v>1</v>
+      </c>
       <c r="AM10" s="24"/>
       <c r="AN10" s="24"/>
     </row>
@@ -3354,8 +3405,12 @@
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
       <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
+      <c r="AK11" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="28">
+        <v>1</v>
+      </c>
       <c r="AM11" s="28"/>
       <c r="AN11" s="28"/>
     </row>
@@ -3458,8 +3513,12 @@
       <c r="AH12" s="24"/>
       <c r="AI12" s="24"/>
       <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
+      <c r="AK12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="24">
+        <v>1</v>
+      </c>
       <c r="AM12" s="24"/>
       <c r="AN12" s="24"/>
     </row>
@@ -3562,7 +3621,9 @@
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
+      <c r="AK13" s="28">
+        <v>1</v>
+      </c>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="28"/>
@@ -3664,8 +3725,12 @@
       <c r="AH14" s="24"/>
       <c r="AI14" s="24"/>
       <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
+      <c r="AK14" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="24">
+        <v>1</v>
+      </c>
       <c r="AM14" s="24"/>
       <c r="AN14" s="24"/>
     </row>
@@ -3974,8 +4039,12 @@
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
       <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
+      <c r="AK17" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="28">
+        <v>1</v>
+      </c>
       <c r="AM17" s="28"/>
       <c r="AN17" s="28"/>
     </row>
@@ -4076,14 +4145,18 @@
       <c r="AH18" s="24"/>
       <c r="AI18" s="24"/>
       <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
+      <c r="AK18" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="24">
+        <v>1</v>
+      </c>
       <c r="AM18" s="24"/>
       <c r="AN18" s="24"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A19" s="27">
-        <v>18</v>
+      <c r="A19" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>48</v>
@@ -4180,7 +4253,9 @@
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
       <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
+      <c r="AK19" s="28">
+        <v>1</v>
+      </c>
       <c r="AL19" s="28"/>
       <c r="AM19" s="28"/>
       <c r="AN19" s="28"/>
@@ -4284,7 +4359,9 @@
       <c r="AH20" s="24"/>
       <c r="AI20" s="24"/>
       <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
+      <c r="AK20" s="24">
+        <v>1</v>
+      </c>
       <c r="AL20" s="24"/>
       <c r="AM20" s="24"/>
       <c r="AN20" s="24"/>
@@ -4388,7 +4465,9 @@
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
       <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
+      <c r="AK21" s="28">
+        <v>1</v>
+      </c>
       <c r="AL21" s="28"/>
       <c r="AM21" s="28"/>
       <c r="AN21" s="28"/>
@@ -4492,7 +4571,9 @@
       <c r="AH22" s="24"/>
       <c r="AI22" s="24"/>
       <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
+      <c r="AK22" s="24">
+        <v>1</v>
+      </c>
       <c r="AL22" s="24"/>
       <c r="AM22" s="24"/>
       <c r="AN22" s="24"/>
@@ -4598,7 +4679,9 @@
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
+      <c r="AK23" s="28">
+        <v>1</v>
+      </c>
       <c r="AL23" s="28"/>
       <c r="AM23" s="28"/>
       <c r="AN23" s="28"/>
@@ -4704,7 +4787,9 @@
       <c r="AH24" s="24"/>
       <c r="AI24" s="24"/>
       <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
+      <c r="AK24" s="24">
+        <v>1</v>
+      </c>
       <c r="AL24" s="24"/>
       <c r="AM24" s="24"/>
       <c r="AN24" s="24"/>
@@ -4808,8 +4893,12 @@
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
+      <c r="AK25" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="28">
+        <v>1</v>
+      </c>
       <c r="AM25" s="28"/>
       <c r="AN25" s="28"/>
     </row>
@@ -5014,7 +5103,9 @@
       <c r="AH27" s="84"/>
       <c r="AI27" s="84"/>
       <c r="AJ27" s="84"/>
-      <c r="AK27" s="84"/>
+      <c r="AK27" s="84">
+        <v>1</v>
+      </c>
       <c r="AL27" s="84"/>
       <c r="AM27" s="84"/>
       <c r="AN27" s="84"/>
@@ -5118,7 +5209,9 @@
       <c r="AJ28" s="80">
         <v>1</v>
       </c>
-      <c r="AK28" s="80"/>
+      <c r="AK28" s="80">
+        <v>1</v>
+      </c>
       <c r="AL28" s="80"/>
       <c r="AM28" s="80"/>
       <c r="AN28" s="80"/>
@@ -5216,7 +5309,9 @@
         <v>1</v>
       </c>
       <c r="AJ29" s="84"/>
-      <c r="AK29" s="84"/>
+      <c r="AK29" s="84">
+        <v>1</v>
+      </c>
       <c r="AL29" s="84"/>
       <c r="AM29" s="84"/>
       <c r="AN29" s="84"/>
@@ -6853,9 +6948,9 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z82" sqref="Z82"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ82" sqref="AJ82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7019,11 +7114,11 @@
       </c>
       <c r="AJ1" s="36" t="str">
         <f>真值表!AK1</f>
-        <v>XXX</v>
+        <v>R1_Used</v>
       </c>
       <c r="AK1" s="36" t="str">
         <f>真值表!AL1</f>
-        <v>XXX</v>
+        <v>R2_Used</v>
       </c>
       <c r="AL1" s="36" t="str">
         <f>真值表!AM1</f>
@@ -7181,7 +7276,7 @@
       </c>
       <c r="AK2" s="35" t="str">
         <f>IF(真值表!AL2=1,$P2&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL2" s="35" t="str">
         <f>IF(真值表!AM2=1,$P2&amp;"+","")</f>
@@ -7339,7 +7434,7 @@
       </c>
       <c r="AK3" s="35" t="str">
         <f>IF(真值表!AL3=1,$P3&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AL3" s="35" t="str">
         <f>IF(真值表!AM3=1,$P3&amp;"+","")</f>
@@ -7497,7 +7592,7 @@
       </c>
       <c r="AK4" s="35" t="str">
         <f>IF(真值表!AL4=1,$P4&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL4" s="35" t="str">
         <f>IF(真值表!AM4=1,$P4&amp;"+","")</f>
@@ -7651,11 +7746,11 @@
       </c>
       <c r="AJ5" s="35" t="str">
         <f>IF(真值表!AK5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK5" s="35" t="str">
         <f>IF(真值表!AL5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL5" s="35" t="str">
         <f>IF(真值表!AM5=1,$P5&amp;"+","")</f>
@@ -7809,11 +7904,11 @@
       </c>
       <c r="AJ6" s="35" t="str">
         <f>IF(真值表!AK6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AK6" s="35" t="str">
         <f>IF(真值表!AL6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AL6" s="35" t="str">
         <f>IF(真值表!AM6=1,$P6&amp;"+","")</f>
@@ -7967,11 +8062,11 @@
       </c>
       <c r="AJ7" s="35" t="str">
         <f>IF(真值表!AK7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AK7" s="35" t="str">
         <f>IF(真值表!AL7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL7" s="35" t="str">
         <f>IF(真值表!AM7=1,$P7&amp;"+","")</f>
@@ -8125,11 +8220,11 @@
       </c>
       <c r="AJ8" s="35" t="str">
         <f>IF(真值表!AK8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK8" s="35" t="str">
         <f>IF(真值表!AL8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL8" s="35" t="str">
         <f>IF(真值表!AM8=1,$P8&amp;"+","")</f>
@@ -8283,11 +8378,11 @@
       </c>
       <c r="AJ9" s="35" t="str">
         <f>IF(真值表!AK9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AK9" s="35" t="str">
         <f>IF(真值表!AL9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AL9" s="35" t="str">
         <f>IF(真值表!AM9=1,$P9&amp;"+","")</f>
@@ -8441,11 +8536,11 @@
       </c>
       <c r="AJ10" s="35" t="str">
         <f>IF(真值表!AK10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AK10" s="35" t="str">
         <f>IF(真值表!AL10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AL10" s="35" t="str">
         <f>IF(真值表!AM10=1,$P10&amp;"+","")</f>
@@ -8599,11 +8694,11 @@
       </c>
       <c r="AJ11" s="35" t="str">
         <f>IF(真值表!AK11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AK11" s="35" t="str">
         <f>IF(真值表!AL11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL11" s="35" t="str">
         <f>IF(真值表!AM11=1,$P11&amp;"+","")</f>
@@ -8757,11 +8852,11 @@
       </c>
       <c r="AJ12" s="35" t="str">
         <f>IF(真值表!AK12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AK12" s="35" t="str">
         <f>IF(真值表!AL12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AL12" s="35" t="str">
         <f>IF(真值表!AM12=1,$P12&amp;"+","")</f>
@@ -8915,7 +9010,7 @@
       </c>
       <c r="AJ13" s="35" t="str">
         <f>IF(真值表!AK13=1,$P13&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK13" s="35" t="str">
         <f>IF(真值表!AL13=1,$P13&amp;"+","")</f>
@@ -9073,11 +9168,11 @@
       </c>
       <c r="AJ14" s="35" t="str">
         <f>IF(真值表!AK14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK14" s="35" t="str">
         <f>IF(真值表!AL14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL14" s="35" t="str">
         <f>IF(真值表!AM14=1,$P14&amp;"+","")</f>
@@ -9547,11 +9642,11 @@
       </c>
       <c r="AJ17" s="35" t="str">
         <f>IF(真值表!AK17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK17" s="35" t="str">
         <f>IF(真值表!AL17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AL17" s="35" t="str">
         <f>IF(真值表!AM17=1,$P17&amp;"+","")</f>
@@ -9705,11 +9800,11 @@
       </c>
       <c r="AJ18" s="35" t="str">
         <f>IF(真值表!AK18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK18" s="35" t="str">
         <f>IF(真值表!AL18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AL18" s="35" t="str">
         <f>IF(真值表!AM18=1,$P18&amp;"+","")</f>
@@ -9863,7 +9958,7 @@
       </c>
       <c r="AJ19" s="35" t="str">
         <f>IF(真值表!AK19=1,$P19&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK19" s="35" t="str">
         <f>IF(真值表!AL19=1,$P19&amp;"+","")</f>
@@ -10021,7 +10116,7 @@
       </c>
       <c r="AJ20" s="35" t="str">
         <f>IF(真值表!AK20=1,$P20&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK20" s="35" t="str">
         <f>IF(真值表!AL20=1,$P20&amp;"+","")</f>
@@ -10179,7 +10274,7 @@
       </c>
       <c r="AJ21" s="35" t="str">
         <f>IF(真值表!AK21=1,$P21&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK21" s="35" t="str">
         <f>IF(真值表!AL21=1,$P21&amp;"+","")</f>
@@ -10337,7 +10432,7 @@
       </c>
       <c r="AJ22" s="35" t="str">
         <f>IF(真值表!AK22=1,$P22&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AK22" s="35" t="str">
         <f>IF(真值表!AL22=1,$P22&amp;"+","")</f>
@@ -10495,7 +10590,7 @@
       </c>
       <c r="AJ23" s="35" t="str">
         <f>IF(真值表!AK23=1,$P23&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK23" s="35" t="str">
         <f>IF(真值表!AL23=1,$P23&amp;"+","")</f>
@@ -10653,7 +10748,7 @@
       </c>
       <c r="AJ24" s="35" t="str">
         <f>IF(真值表!AK24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AK24" s="35" t="str">
         <f>IF(真值表!AL24=1,$P24&amp;"+","")</f>
@@ -10811,11 +10906,11 @@
       </c>
       <c r="AJ25" s="35" t="str">
         <f>IF(真值表!AK25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AK25" s="35" t="str">
         <f>IF(真值表!AL25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AL25" s="35" t="str">
         <f>IF(真值表!AM25=1,$P25&amp;"+","")</f>
@@ -11127,7 +11222,7 @@
       </c>
       <c r="AJ27" s="35" t="str">
         <f>IF(真值表!AK27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AK27" s="35" t="str">
         <f>IF(真值表!AL27=1,$P27&amp;"+","")</f>
@@ -11285,7 +11380,7 @@
       </c>
       <c r="AJ28" s="35" t="str">
         <f>IF(真值表!AK28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK28" s="35" t="str">
         <f>IF(真值表!AL28=1,$P28&amp;"+","")</f>
@@ -11443,7 +11538,7 @@
       </c>
       <c r="AJ29" s="35" t="str">
         <f>IF(真值表!AK29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK29" s="35" t="str">
         <f>IF(真值表!AL29=1,$P29&amp;"+","")</f>
@@ -19366,11 +19461,11 @@
       </c>
       <c r="AJ82" s="54" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="AK82" s="54" t="str">
         <f t="shared" ref="AK82" si="14">IF(LEN(AK83)&gt;1,LEFT(AK83,LEN(AK83)-1),"")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="AL82" s="54" t="str">
         <f t="shared" ref="AL82" si="15">IF(LEN(AL83)&gt;1,LEFT(AL83,LEN(AL83)-1),"")</f>
@@ -19461,11 +19556,11 @@
       </c>
       <c r="AJ83" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK83" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AL83" t="str">
         <f t="shared" si="17"/>

--- a/课程设计/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
+++ b/课程设计/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerOrganization\课程设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5C1FFA-CBFB-4F9F-8F17-1A4C915518BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14439B-A710-48BF-B216-63789AF5E149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -2186,11 +2186,8 @@
   </sheetPr>
   <dimension ref="A1:AO65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="25" ySplit="20" topLeftCell="AG21" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="AJ32" sqref="AJ32"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AT17" sqref="AT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -6948,7 +6945,7 @@
   </sheetPr>
   <dimension ref="A1:AY87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AJ82" sqref="AJ82"/>
     </sheetView>

--- a/课程设计/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
+++ b/课程设计/单周期硬布线控制器表达式自动生成(2019-10-29).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerOrganization\课程设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14439B-A710-48BF-B216-63789AF5E149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1709B691-5EA1-42D5-9C6E-D355B4A6479E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="129">
   <si>
     <t>#</t>
   </si>
@@ -891,10 +891,6 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -2187,7 +2183,7 @@
   <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AT17" sqref="AT17"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4152,8 +4148,8 @@
       <c r="AN18" s="24"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A19" s="27" t="s">
-        <v>129</v>
+      <c r="A19" s="27">
+        <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>48</v>
